--- a/water_quality_prediction/output/output.xlsx
+++ b/water_quality_prediction/output/output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,7 +531,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2019.01.01 07:00</t>
+          <t>2019.01.01 09:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="D6" t="n">
         <v>6.8</v>
@@ -549,7 +549,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2019.01.01 08:00</t>
+          <t>2019.01.01 10:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -558,7 +558,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="D7" t="n">
         <v>6.8</v>
@@ -567,7 +567,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2019.01.01 08:00</t>
+          <t>2019.01.01 10:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -576,7 +576,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="D8" t="n">
         <v>6.8</v>
@@ -585,7 +585,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2019.01.01 09:00</t>
+          <t>2019.01.01 11:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -594,9 +594,225 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="D9" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2019.01.01 11:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2019.01.01 12:00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2019.01.01 12:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2019.01.01 13:00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2019.01.01 15:00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2019.01.01 16:00</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2019.01.01 16:00</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2019.01.01 17:00</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2019.01.01 17:00</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2019.01.01 18:00</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2019.01.01 18:00</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D20" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2019.01.01 19:00</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D21" t="n">
         <v>6.8</v>
       </c>
     </row>

--- a/water_quality_prediction/output/output.xlsx
+++ b/water_quality_prediction/output/output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,11 +455,16 @@
           <t>수소이온농도</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>전기전도도</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2019.01.01 05:00</t>
+          <t>2019.01.01 09:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -468,16 +473,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>6.8</v>
+        <v>24</v>
+      </c>
+      <c r="E2" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2019.01.01 06:00</t>
+          <t>2019.01.01 10:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -486,16 +494,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>6.8</v>
+        <v>25</v>
+      </c>
+      <c r="E3" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2019.01.01 06:00</t>
+          <t>2019.01.01 11:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -504,16 +515,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>6.8</v>
+        <v>26</v>
+      </c>
+      <c r="E4" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2019.01.01 07:00</t>
+          <t>2019.01.01 10:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -522,16 +536,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>6.8</v>
+        <v>25</v>
+      </c>
+      <c r="E5" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2019.01.01 09:00</t>
+          <t>2019.01.01 11:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -540,16 +557,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>6.8</v>
+        <v>26</v>
+      </c>
+      <c r="E6" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2019.01.01 10:00</t>
+          <t>2019.01.01 12:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -558,16 +578,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>6.8</v>
+        <v>27</v>
+      </c>
+      <c r="E7" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2019.01.01 10:00</t>
+          <t>2019.01.01 11:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -576,16 +599,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>6.8</v>
+        <v>26</v>
+      </c>
+      <c r="E8" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2019.01.01 11:00</t>
+          <t>2019.01.01 12:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -594,16 +620,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="D9" t="n">
-        <v>6.8</v>
+        <v>27</v>
+      </c>
+      <c r="E9" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2019.01.01 11:00</t>
+          <t>2019.01.01 13:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -612,16 +641,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>6.8</v>
+        <v>28</v>
+      </c>
+      <c r="E10" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2019.01.01 12:00</t>
+          <t>2019.01.01 15:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -630,16 +662,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="D11" t="n">
-        <v>6.8</v>
+        <v>29</v>
+      </c>
+      <c r="E11" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2019.01.01 12:00</t>
+          <t>2019.01.01 16:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -648,16 +683,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="D12" t="n">
-        <v>6.8</v>
+        <v>30</v>
+      </c>
+      <c r="E12" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2019.01.01 13:00</t>
+          <t>2019.01.01 17:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -666,16 +704,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2.4</v>
+        <v>11</v>
       </c>
       <c r="D13" t="n">
-        <v>6.8</v>
+        <v>31</v>
+      </c>
+      <c r="E13" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2019.01.01 15:00</t>
+          <t>2019.01.01 16:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -684,16 +725,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2.3</v>
+        <v>10</v>
       </c>
       <c r="D14" t="n">
-        <v>6.8</v>
+        <v>30</v>
+      </c>
+      <c r="E14" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2019.01.01 16:00</t>
+          <t>2019.01.01 17:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -702,16 +746,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2.2</v>
+        <v>11</v>
       </c>
       <c r="D15" t="n">
-        <v>6.8</v>
+        <v>31</v>
+      </c>
+      <c r="E15" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2019.01.01 16:00</t>
+          <t>2019.01.01 18:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -720,10 +767,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.2</v>
+        <v>12</v>
       </c>
       <c r="D16" t="n">
-        <v>6.8</v>
+        <v>32</v>
+      </c>
+      <c r="E16" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="17">
@@ -738,16 +788,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D17" t="n">
-        <v>6.8</v>
+        <v>31</v>
+      </c>
+      <c r="E17" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2019.01.01 17:00</t>
+          <t>2019.01.01 18:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -756,16 +809,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D18" t="n">
-        <v>6.8</v>
+        <v>32</v>
+      </c>
+      <c r="E18" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2019.01.01 18:00</t>
+          <t>2019.01.01 19:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -774,46 +830,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2.2</v>
+        <v>13</v>
       </c>
       <c r="D19" t="n">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2019.01.01 18:00</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>가평</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="D20" t="n">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2019.01.01 19:00</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>가평</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="D21" t="n">
-        <v>6.8</v>
+        <v>33</v>
+      </c>
+      <c r="E19" t="n">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/water_quality_prediction/output/output.xlsx
+++ b/water_quality_prediction/output/output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,11 +455,6 @@
           <t>수소이온농도</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>전기전도도</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -478,9 +473,6 @@
       <c r="D2" t="n">
         <v>24</v>
       </c>
-      <c r="E2" t="n">
-        <v>44</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -499,14 +491,11 @@
       <c r="D3" t="n">
         <v>25</v>
       </c>
-      <c r="E3" t="n">
-        <v>45</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2019.01.01 11:00</t>
+          <t>2019.01.01 10:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -515,19 +504,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>26</v>
-      </c>
-      <c r="E4" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2019.01.01 10:00</t>
+          <t>2019.01.01 11:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -536,13 +522,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>25</v>
-      </c>
-      <c r="E5" t="n">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
@@ -562,9 +545,6 @@
       <c r="D6" t="n">
         <v>26</v>
       </c>
-      <c r="E6" t="n">
-        <v>46</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -583,14 +563,11 @@
       <c r="D7" t="n">
         <v>27</v>
       </c>
-      <c r="E7" t="n">
-        <v>47</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2019.01.01 11:00</t>
+          <t>2019.01.01 12:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -599,19 +576,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>26</v>
-      </c>
-      <c r="E8" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2019.01.01 12:00</t>
+          <t>2019.01.01 13:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -620,223 +594,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>27</v>
-      </c>
-      <c r="E9" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2019.01.01 13:00</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>가평</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>8</v>
-      </c>
-      <c r="D10" t="n">
         <v>28</v>
-      </c>
-      <c r="E10" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2019.01.01 15:00</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>가평</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>9</v>
-      </c>
-      <c r="D11" t="n">
-        <v>29</v>
-      </c>
-      <c r="E11" t="n">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2019.01.01 16:00</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>가평</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>10</v>
-      </c>
-      <c r="D12" t="n">
-        <v>30</v>
-      </c>
-      <c r="E12" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2019.01.01 17:00</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>가평</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>11</v>
-      </c>
-      <c r="D13" t="n">
-        <v>31</v>
-      </c>
-      <c r="E13" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2019.01.01 16:00</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>가평</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>10</v>
-      </c>
-      <c r="D14" t="n">
-        <v>30</v>
-      </c>
-      <c r="E14" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2019.01.01 17:00</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>가평</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>11</v>
-      </c>
-      <c r="D15" t="n">
-        <v>31</v>
-      </c>
-      <c r="E15" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2019.01.01 18:00</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>가평</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>12</v>
-      </c>
-      <c r="D16" t="n">
-        <v>32</v>
-      </c>
-      <c r="E16" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2019.01.01 17:00</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>가평</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>11</v>
-      </c>
-      <c r="D17" t="n">
-        <v>31</v>
-      </c>
-      <c r="E17" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2019.01.01 18:00</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>가평</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>12</v>
-      </c>
-      <c r="D18" t="n">
-        <v>32</v>
-      </c>
-      <c r="E18" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2019.01.01 19:00</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>가평</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>13</v>
-      </c>
-      <c r="D19" t="n">
-        <v>33</v>
-      </c>
-      <c r="E19" t="n">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
